--- a/OriginTable/SanLevel.xlsx
+++ b/OriginTable/SanLevel.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SanLevel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -27,25 +25,34 @@
     <t>AlertChange</t>
   </si>
   <si>
+    <t>阶段ID</t>
+  </si>
+  <si>
+    <t>阶段区间</t>
+  </si>
+  <si>
+    <t>警戒度改变值</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>[1|20]</t>
-  </si>
-  <si>
-    <t>[20|40]</t>
-  </si>
-  <si>
-    <t>[40|60]</t>
-  </si>
-  <si>
-    <t>[60|80]</t>
-  </si>
-  <si>
-    <t>[80|-1]</t>
+    <t>intlist</t>
+  </si>
+  <si>
+    <t>1|20</t>
+  </si>
+  <si>
+    <t>20|40</t>
+  </si>
+  <si>
+    <t>40|60</t>
+  </si>
+  <si>
+    <t>60|80</t>
+  </si>
+  <si>
+    <t>80|-1</t>
   </si>
 </sst>
 </file>
@@ -224,18 +231,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -562,7 +563,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,16 +587,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -604,109 +605,100 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,141 +1017,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="8"/>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/SanLevel.xlsx
+++ b/OriginTable/SanLevel.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
